--- a/docs/odh/shr-core-Duration-model.xlsx
+++ b/docs/odh/shr-core-Duration-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,10 @@
     <t>The unit of measure of the quantity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/TimeUnitOfMeasureVS</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/duration-units</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0805701
@@ -325,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -358,7 +361,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.05859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.6640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -823,14 +826,14 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
